--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1927,28 +1927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>915.160740363534</v>
+        <v>976.0534025773533</v>
       </c>
       <c r="AB2" t="n">
-        <v>1252.163299007796</v>
+        <v>1335.479325843404</v>
       </c>
       <c r="AC2" t="n">
-        <v>1132.658591172719</v>
+        <v>1208.023053341915</v>
       </c>
       <c r="AD2" t="n">
-        <v>915160.7403635341</v>
+        <v>976053.4025773533</v>
       </c>
       <c r="AE2" t="n">
-        <v>1252163.299007796</v>
+        <v>1335479.325843404</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.712537294485817e-06</v>
+        <v>3.168642361773157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.872916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1132658.591172719</v>
+        <v>1208023.053341915</v>
       </c>
     </row>
     <row r="3">
@@ -2033,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.6177751606089</v>
+        <v>335.1192361470718</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.5820140612059</v>
+        <v>458.5249233136917</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.587520087662</v>
+        <v>414.7639481764039</v>
       </c>
       <c r="AD3" t="n">
-        <v>298617.7751606089</v>
+        <v>335119.2361470718</v>
       </c>
       <c r="AE3" t="n">
-        <v>408582.0140612059</v>
+        <v>458524.9233136917</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.216313973211416e-06</v>
+        <v>5.951022927848436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.725000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>369587.520087662</v>
+        <v>414763.9481764039</v>
       </c>
     </row>
     <row r="4">
@@ -2139,28 +2139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.5213140196423</v>
+        <v>277.8272639009813</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.879046412519</v>
+        <v>380.1355193431602</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.773397070811</v>
+        <v>343.8559189006004</v>
       </c>
       <c r="AD4" t="n">
-        <v>253521.3140196423</v>
+        <v>277827.2639009813</v>
       </c>
       <c r="AE4" t="n">
-        <v>346879.046412519</v>
+        <v>380135.5193431602</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.525734843950356e-06</v>
+        <v>6.523532549564158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.310416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>313773.397070811</v>
+        <v>343855.9189006004</v>
       </c>
     </row>
     <row r="5">
@@ -2245,28 +2245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.6077421355621</v>
+        <v>278.9136920169011</v>
       </c>
       <c r="AB5" t="n">
-        <v>348.3655452905455</v>
+        <v>381.6220182211874</v>
       </c>
       <c r="AC5" t="n">
-        <v>315.1180265822334</v>
+        <v>345.2005484120231</v>
       </c>
       <c r="AD5" t="n">
-        <v>254607.7421355621</v>
+        <v>278913.6920169011</v>
       </c>
       <c r="AE5" t="n">
-        <v>348365.5452905455</v>
+        <v>381622.0182211874</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.525151306240334e-06</v>
+        <v>6.522452852022026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.310416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>315118.0265822334</v>
+        <v>345200.5484120231</v>
       </c>
     </row>
   </sheetData>
@@ -2542,28 +2542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.0876023102119</v>
+        <v>589.0571099865092</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.7081726979953</v>
+        <v>805.9739252491389</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.9205856896563</v>
+        <v>729.052905014869</v>
       </c>
       <c r="AD2" t="n">
-        <v>542087.6023102119</v>
+        <v>589057.1099865092</v>
       </c>
       <c r="AE2" t="n">
-        <v>741708.1726979953</v>
+        <v>805973.925249139</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273691404509717e-06</v>
+        <v>4.334006721243716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.914583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>670920.5856896563</v>
+        <v>729052.9050148689</v>
       </c>
     </row>
     <row r="3">
@@ -2648,28 +2648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.1528441515369</v>
+        <v>267.5950170709539</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.0606926312628</v>
+        <v>366.1353078154458</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.1784089837613</v>
+        <v>331.1918679116708</v>
       </c>
       <c r="AD3" t="n">
-        <v>244152.8441515369</v>
+        <v>267595.0170709539</v>
       </c>
       <c r="AE3" t="n">
-        <v>334060.6926312628</v>
+        <v>366135.3078154458</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.527043794955304e-06</v>
+        <v>6.723089810313745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.457291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>302178.4089837613</v>
+        <v>331191.8679116708</v>
       </c>
     </row>
     <row r="4">
@@ -2754,28 +2754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.5185933892743</v>
+        <v>266.9607663086912</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.1928827571667</v>
+        <v>365.2674979413493</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.3934216660699</v>
+        <v>330.4068805939793</v>
       </c>
       <c r="AD4" t="n">
-        <v>243518.5933892743</v>
+        <v>266960.7663086912</v>
       </c>
       <c r="AE4" t="n">
-        <v>333192.8827571667</v>
+        <v>365267.4979413493</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.540475265485064e-06</v>
+        <v>6.748692266054531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.439583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>301393.4216660699</v>
+        <v>330406.8805939793</v>
       </c>
     </row>
   </sheetData>
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.7932363194738</v>
+        <v>279.0129715924573</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.0416377981991</v>
+        <v>381.7578569163692</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.6839797347673</v>
+        <v>345.3234228527874</v>
       </c>
       <c r="AD2" t="n">
-        <v>247793.2363194738</v>
+        <v>279012.9715924573</v>
       </c>
       <c r="AE2" t="n">
-        <v>339041.6377981991</v>
+        <v>381757.8569163692</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.294232985331377e-06</v>
+        <v>7.015854148317407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>306683.9797347673</v>
+        <v>345323.4228527874</v>
       </c>
     </row>
   </sheetData>
@@ -3348,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.5109615623429</v>
+        <v>282.4546431632946</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.4425905420923</v>
+        <v>386.4669037954225</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.4242099710721</v>
+        <v>349.5830449068928</v>
       </c>
       <c r="AD2" t="n">
-        <v>260510.9615623429</v>
+        <v>282454.6431632946</v>
       </c>
       <c r="AE2" t="n">
-        <v>356442.5905420923</v>
+        <v>386466.9037954225</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.332406331462325e-06</v>
+        <v>6.765936971248803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.035416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>322424.209971072</v>
+        <v>349583.0449068928</v>
       </c>
     </row>
     <row r="3">
@@ -3454,28 +3454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.5589776317017</v>
+        <v>267.3890249157341</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.9339412073116</v>
+        <v>365.8534602609416</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.3044562921965</v>
+        <v>330.9369194921931</v>
       </c>
       <c r="AD3" t="n">
-        <v>234558.9776317017</v>
+        <v>267389.0249157341</v>
       </c>
       <c r="AE3" t="n">
-        <v>320933.9412073116</v>
+        <v>365853.4602609416</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.459838451751748e-06</v>
+        <v>7.024668232755104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>290304.4562921965</v>
+        <v>330936.919492193</v>
       </c>
     </row>
   </sheetData>
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.5644080270621</v>
+        <v>301.5796795058928</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.8839624698991</v>
+        <v>412.6346222564208</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.7280193850673</v>
+        <v>373.2533530445969</v>
       </c>
       <c r="AD2" t="n">
-        <v>261564.4080270621</v>
+        <v>301579.6795058928</v>
       </c>
       <c r="AE2" t="n">
-        <v>357883.9624698991</v>
+        <v>412634.6222564208</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.043385388886618e-06</v>
+        <v>6.777024814717712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.986458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>323728.0193850673</v>
+        <v>373253.3530445969</v>
       </c>
     </row>
   </sheetData>
@@ -4048,28 +4048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>621.0288783661391</v>
+        <v>668.3672074759141</v>
       </c>
       <c r="AB2" t="n">
-        <v>849.7191092410218</v>
+        <v>914.4894995487034</v>
       </c>
       <c r="AC2" t="n">
-        <v>768.623110043318</v>
+        <v>827.2119052058481</v>
       </c>
       <c r="AD2" t="n">
-        <v>621028.8783661391</v>
+        <v>668367.2074759142</v>
       </c>
       <c r="AE2" t="n">
-        <v>849719.1092410218</v>
+        <v>914489.4995487034</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126739460250817e-06</v>
+        <v>4.021161704068767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.324999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>768623.110043318</v>
+        <v>827211.905205848</v>
       </c>
     </row>
     <row r="3">
@@ -4154,28 +4154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.3667211160289</v>
+        <v>274.0359304251951</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.5627932309805</v>
+        <v>374.9480496197613</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.8690810350178</v>
+        <v>339.1635340069433</v>
       </c>
       <c r="AD3" t="n">
-        <v>250366.7211160289</v>
+        <v>274035.9304251951</v>
       </c>
       <c r="AE3" t="n">
-        <v>342562.7932309805</v>
+        <v>374948.0496197613</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.498202248612278e-06</v>
+        <v>6.614273717170779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>309869.0810350178</v>
+        <v>339163.5340069433</v>
       </c>
     </row>
     <row r="4">
@@ -4260,28 +4260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.3409473695594</v>
+        <v>269.0101566787255</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.686307869575</v>
+        <v>368.0715642583523</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.6488777852948</v>
+        <v>332.9433307572194</v>
       </c>
       <c r="AD4" t="n">
-        <v>245340.9473695594</v>
+        <v>269010.1566787255</v>
       </c>
       <c r="AE4" t="n">
-        <v>335686.307869575</v>
+        <v>368071.5642583523</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.541275452870523e-06</v>
+        <v>6.695714966873436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.398958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>303648.8777852948</v>
+        <v>332943.3307572193</v>
       </c>
     </row>
   </sheetData>
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.4114356247608</v>
+        <v>315.8955434337287</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.8807618025641</v>
+        <v>432.2222188538283</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.4802119042301</v>
+        <v>390.9715369141123</v>
       </c>
       <c r="AD2" t="n">
-        <v>286411.4356247608</v>
+        <v>315895.5434337287</v>
       </c>
       <c r="AE2" t="n">
-        <v>391880.761802564</v>
+        <v>432222.2188538283</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.838547954579376e-06</v>
+        <v>6.507560653795309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.568750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>354480.2119042301</v>
+        <v>390971.5369141123</v>
       </c>
     </row>
   </sheetData>
@@ -4854,28 +4854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.6489765251501</v>
+        <v>399.834848525121</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.2970609760659</v>
+        <v>547.0716792206573</v>
       </c>
       <c r="AC2" t="n">
-        <v>452.5494116478446</v>
+        <v>494.8599259757611</v>
       </c>
       <c r="AD2" t="n">
-        <v>365648.9765251501</v>
+        <v>399834.848525121</v>
       </c>
       <c r="AE2" t="n">
-        <v>500297.0609760659</v>
+        <v>547071.6792206573</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.791660739502736e-06</v>
+        <v>5.471616468857686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.802083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>452549.4116478447</v>
+        <v>494859.9259757611</v>
       </c>
     </row>
     <row r="3">
@@ -4960,28 +4960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.8164206901171</v>
+        <v>259.6923428780057</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.022674391193</v>
+        <v>355.3225203432746</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.0984051160734</v>
+        <v>321.4110377000011</v>
       </c>
       <c r="AD3" t="n">
-        <v>236816.4206901171</v>
+        <v>259692.3428780057</v>
       </c>
       <c r="AE3" t="n">
-        <v>324022.674391193</v>
+        <v>355322.5203432746</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523394917964352e-06</v>
+        <v>6.90580534612427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.596875</v>
       </c>
       <c r="AH3" t="n">
-        <v>293098.4051160734</v>
+        <v>321411.0377000012</v>
       </c>
     </row>
   </sheetData>
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.074943987134</v>
+        <v>515.0979166397193</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.8597177749584</v>
+        <v>704.7796940627312</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.1699482189198</v>
+        <v>637.5165092258966</v>
       </c>
       <c r="AD2" t="n">
-        <v>480074.943987134</v>
+        <v>515097.9166397193</v>
       </c>
       <c r="AE2" t="n">
-        <v>656859.7177749585</v>
+        <v>704779.6940627312</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.435905843924073e-06</v>
+        <v>4.68352367171811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.514583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>594169.9482189198</v>
+        <v>637516.5092258966</v>
       </c>
     </row>
     <row r="3">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.4138568107118</v>
+        <v>263.6203599967034</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.9448451990688</v>
+        <v>360.6970066569619</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.5508108503573</v>
+        <v>326.272590583049</v>
       </c>
       <c r="AD3" t="n">
-        <v>240413.8568107118</v>
+        <v>263620.3599967035</v>
       </c>
       <c r="AE3" t="n">
-        <v>328944.8451990688</v>
+        <v>360697.0066569619</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.539368601291142e-06</v>
+        <v>6.805154915338992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>297550.8108503573</v>
+        <v>326272.590583049</v>
       </c>
     </row>
     <row r="4">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.2844558966336</v>
+        <v>264.4909590826252</v>
       </c>
       <c r="AB4" t="n">
-        <v>330.1360372765474</v>
+        <v>361.8881987344409</v>
       </c>
       <c r="AC4" t="n">
-        <v>298.6283172278103</v>
+        <v>327.3500969605021</v>
       </c>
       <c r="AD4" t="n">
-        <v>241284.4558966336</v>
+        <v>264490.9590826252</v>
       </c>
       <c r="AE4" t="n">
-        <v>330136.0372765473</v>
+        <v>361888.198734441</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.54028269442164e-06</v>
+        <v>6.80691244501754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.482291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>298628.3172278103</v>
+        <v>327350.0969605021</v>
       </c>
     </row>
   </sheetData>
@@ -5766,28 +5766,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>804.619354800397</v>
+        <v>852.9055252118545</v>
       </c>
       <c r="AB2" t="n">
-        <v>1100.915698538564</v>
+        <v>1166.982967131014</v>
       </c>
       <c r="AC2" t="n">
-        <v>995.8458494149299</v>
+        <v>1055.607750618911</v>
       </c>
       <c r="AD2" t="n">
-        <v>804619.3548003969</v>
+        <v>852905.5252118545</v>
       </c>
       <c r="AE2" t="n">
-        <v>1100915.698538564</v>
+        <v>1166982.967131014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846073644822291e-06</v>
+        <v>3.439095182219093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.297916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>995845.84941493</v>
+        <v>1055607.750618911</v>
       </c>
     </row>
     <row r="3">
@@ -5872,28 +5872,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.8949878947372</v>
+        <v>303.1660396280479</v>
       </c>
       <c r="AB3" t="n">
-        <v>381.5964264160752</v>
+        <v>414.8051501608227</v>
       </c>
       <c r="AC3" t="n">
-        <v>345.1773990528724</v>
+        <v>375.2167288121578</v>
       </c>
       <c r="AD3" t="n">
-        <v>278894.9878947372</v>
+        <v>303166.039628048</v>
       </c>
       <c r="AE3" t="n">
-        <v>381596.4264160752</v>
+        <v>414805.1501608227</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.328049922703369e-06</v>
+        <v>6.19990458531006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.603124999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>345177.3990528724</v>
+        <v>375216.7288121578</v>
       </c>
     </row>
     <row r="4">
@@ -5978,28 +5978,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>251.1658527962515</v>
+        <v>275.2663123289731</v>
       </c>
       <c r="AB4" t="n">
-        <v>343.656200451062</v>
+        <v>376.6315124211292</v>
       </c>
       <c r="AC4" t="n">
-        <v>310.8581350046218</v>
+        <v>340.6863294813035</v>
       </c>
       <c r="AD4" t="n">
-        <v>251165.8527962515</v>
+        <v>275266.3123289731</v>
       </c>
       <c r="AE4" t="n">
-        <v>343656.2004510621</v>
+        <v>376631.5124211292</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.528774036546163e-06</v>
+        <v>6.573838385192893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.340625</v>
       </c>
       <c r="AH4" t="n">
-        <v>310858.1350046218</v>
+        <v>340686.3294813035</v>
       </c>
     </row>
   </sheetData>
@@ -6275,28 +6275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.9208461458263</v>
+        <v>309.1619026325953</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.5777597510918</v>
+        <v>423.0089544424515</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.1106893467932</v>
+        <v>382.6375735272595</v>
       </c>
       <c r="AD2" t="n">
-        <v>286920.8461458263</v>
+        <v>309161.9026325953</v>
       </c>
       <c r="AE2" t="n">
-        <v>392577.7597510918</v>
+        <v>423008.9544424515</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.176953228026621e-06</v>
+        <v>6.368194342424846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.215625</v>
       </c>
       <c r="AH2" t="n">
-        <v>355110.6893467932</v>
+        <v>382637.5735272595</v>
       </c>
     </row>
     <row r="3">
@@ -6381,28 +6381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.019321787032</v>
+        <v>267.2954313997904</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.1955602726993</v>
+        <v>365.7254014833729</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.6365453976592</v>
+        <v>330.8210824646239</v>
       </c>
       <c r="AD3" t="n">
-        <v>234019.321787032</v>
+        <v>267295.4313997904</v>
       </c>
       <c r="AE3" t="n">
-        <v>320195.5602726993</v>
+        <v>365725.401483373</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.495125809701796e-06</v>
+        <v>7.005970440814915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.741666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>289636.5453976592</v>
+        <v>330821.0824646239</v>
       </c>
     </row>
   </sheetData>
@@ -6678,28 +6678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.0641280308972</v>
+        <v>267.3547155531954</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.675795554896</v>
+        <v>365.806516677494</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.5439301546838</v>
+        <v>330.8944561384638</v>
       </c>
       <c r="AD2" t="n">
-        <v>246064.1280308972</v>
+        <v>267354.7155531954</v>
       </c>
       <c r="AE2" t="n">
-        <v>336675.7955548959</v>
+        <v>365806.516677494</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.360869564915639e-06</v>
+        <v>7.031149311585202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.136458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>304543.9301546838</v>
+        <v>330894.4561384638</v>
       </c>
     </row>
     <row r="3">
@@ -6784,28 +6784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.9653517152738</v>
+        <v>268.255939237572</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.9088895590423</v>
+        <v>367.0396106816409</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.659339397733</v>
+        <v>332.0098653815133</v>
       </c>
       <c r="AD3" t="n">
-        <v>246965.3517152738</v>
+        <v>268255.939237572</v>
       </c>
       <c r="AE3" t="n">
-        <v>337908.8895590423</v>
+        <v>367039.6106816409</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.365841020314656e-06</v>
+        <v>7.041549907184411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.128125</v>
       </c>
       <c r="AH3" t="n">
-        <v>305659.339397733</v>
+        <v>332009.8653815133</v>
       </c>
     </row>
   </sheetData>
@@ -11342,28 +11342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.4737149677435</v>
+        <v>283.2698705764287</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.4456751729033</v>
+        <v>387.5823339073677</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.4768247705547</v>
+        <v>350.5920199344698</v>
       </c>
       <c r="AD2" t="n">
-        <v>252473.7149677436</v>
+        <v>283269.8705764287</v>
       </c>
       <c r="AE2" t="n">
-        <v>345445.6751729033</v>
+        <v>387582.3339073677</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.191414086604024e-06</v>
+        <v>6.937673926166503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.595833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>312476.8247705547</v>
+        <v>350592.0199344698</v>
       </c>
     </row>
   </sheetData>
@@ -11639,28 +11639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.6092220727672</v>
+        <v>361.6587314369295</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.776414271245</v>
+        <v>494.8374316091734</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.5184547337971</v>
+        <v>447.6108416450903</v>
       </c>
       <c r="AD2" t="n">
-        <v>323609.2220727672</v>
+        <v>361658.7314369295</v>
       </c>
       <c r="AE2" t="n">
-        <v>442776.414271245</v>
+        <v>494837.4316091734</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.53263642127034e-06</v>
+        <v>6.023944016792068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.567708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>400518.4547337971</v>
+        <v>447610.8416450903</v>
       </c>
     </row>
   </sheetData>
@@ -11936,28 +11936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.2893143176296</v>
+        <v>460.7738318750698</v>
       </c>
       <c r="AB2" t="n">
-        <v>583.2678464066294</v>
+        <v>630.4510846782621</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.6015817671437</v>
+        <v>570.2817180002227</v>
       </c>
       <c r="AD2" t="n">
-        <v>426289.3143176297</v>
+        <v>460773.8318750698</v>
       </c>
       <c r="AE2" t="n">
-        <v>583267.8464066293</v>
+        <v>630451.0846782621</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.605937829931963e-06</v>
+        <v>5.057026130261278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.151041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>527601.5817671437</v>
+        <v>570281.7180002227</v>
       </c>
     </row>
     <row r="3">
@@ -12042,28 +12042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.330223789428</v>
+        <v>261.4620772463098</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.0939265759484</v>
+        <v>357.7439489811583</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.9719798993373</v>
+        <v>323.6013685871816</v>
       </c>
       <c r="AD3" t="n">
-        <v>238330.223789428</v>
+        <v>261462.0772463098</v>
       </c>
       <c r="AE3" t="n">
-        <v>326093.9265759484</v>
+        <v>357743.9489811583</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.53500328913893e-06</v>
+        <v>6.859950302115175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.534375</v>
       </c>
       <c r="AH3" t="n">
-        <v>294971.9798993373</v>
+        <v>323601.3685871816</v>
       </c>
     </row>
     <row r="4">
@@ -12148,28 +12148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.4919072537504</v>
+        <v>262.6237607106322</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.6833931416909</v>
+        <v>359.3334155469016</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.4097500068761</v>
+        <v>325.0391386947207</v>
       </c>
       <c r="AD4" t="n">
-        <v>239491.9072537504</v>
+        <v>262623.7607106322</v>
       </c>
       <c r="AE4" t="n">
-        <v>327683.3931416909</v>
+        <v>359333.4155469016</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.534080070729649e-06</v>
+        <v>6.858158724600912e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.535416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>296409.7500068761</v>
+        <v>325039.1386947208</v>
       </c>
     </row>
   </sheetData>
@@ -12445,28 +12445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.493775875146</v>
+        <v>749.4410986916438</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.8147318735864</v>
+        <v>1025.418374237712</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.2113609720075</v>
+        <v>927.5538837841915</v>
       </c>
       <c r="AD2" t="n">
-        <v>701493.7758751459</v>
+        <v>749441.0986916438</v>
       </c>
       <c r="AE2" t="n">
-        <v>959814.7318735864</v>
+        <v>1025418.374237712</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981234153812776e-06</v>
+        <v>3.717572370527675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.795833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>868211.3609720075</v>
+        <v>927553.8837841915</v>
       </c>
     </row>
     <row r="3">
@@ -12551,28 +12551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.5640046496181</v>
+        <v>286.6230069124387</v>
       </c>
       <c r="AB3" t="n">
-        <v>359.2516546679708</v>
+        <v>392.1702429722313</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.965180959323</v>
+        <v>354.7420653973537</v>
       </c>
       <c r="AD3" t="n">
-        <v>262564.0046496181</v>
+        <v>286623.0069124387</v>
       </c>
       <c r="AE3" t="n">
-        <v>359251.6546679708</v>
+        <v>392170.2429722313</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.42423451191081e-06</v>
+        <v>6.425207029259551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.510416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>324965.180959323</v>
+        <v>354742.0653973537</v>
       </c>
     </row>
     <row r="4">
@@ -12657,28 +12657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.649273962527</v>
+        <v>272.5376840247584</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.2129062671395</v>
+        <v>372.8980827967177</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.743463984918</v>
+        <v>337.3092131403445</v>
       </c>
       <c r="AD4" t="n">
-        <v>248649.273962527</v>
+        <v>272537.6840247585</v>
       </c>
       <c r="AE4" t="n">
-        <v>340212.9062671395</v>
+        <v>372898.0827967177</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.535884662922711e-06</v>
+        <v>6.634706505012233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.367708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>307743.463984918</v>
+        <v>337309.2131403445</v>
       </c>
     </row>
   </sheetData>
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.4455151949356</v>
+        <v>447.2464800111026</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.2754644158961</v>
+        <v>611.9423650733369</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.8533850049983</v>
+        <v>553.5394446172404</v>
       </c>
       <c r="AD2" t="n">
-        <v>401445.5151949357</v>
+        <v>447246.4800111026</v>
       </c>
       <c r="AE2" t="n">
-        <v>549275.4644158961</v>
+        <v>611942.3650733369</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.045075085027187e-06</v>
+        <v>5.114577587862571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.704166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>496853.3850049983</v>
+        <v>553539.4446172405</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.9217507297652</v>
+        <v>269.5497341870052</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.2174768840155</v>
+        <v>368.8098380096602</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.843036985025</v>
+        <v>333.6111446978761</v>
       </c>
       <c r="AD2" t="n">
-        <v>247921.7507297652</v>
+        <v>269549.7341870052</v>
       </c>
       <c r="AE2" t="n">
-        <v>339217.4768840155</v>
+        <v>368809.8380096602</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391572396859191e-06</v>
+        <v>6.984208933865702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>306843.036985025</v>
+        <v>333611.1446978761</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.2236105655745</v>
+        <v>266.5801106340346</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.4750771920858</v>
+        <v>364.7466680539409</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.889385614564</v>
+        <v>329.9357579800358</v>
       </c>
       <c r="AD3" t="n">
-        <v>234223.6105655745</v>
+        <v>266580.1106340346</v>
       </c>
       <c r="AE3" t="n">
-        <v>320475.0771920859</v>
+        <v>364746.6680539409</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425048844514644e-06</v>
+        <v>7.053146428759172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>289889.3856145641</v>
+        <v>329935.7579800358</v>
       </c>
     </row>
   </sheetData>
@@ -13654,28 +13654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.8090370783914</v>
+        <v>355.4223668641198</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.313321743383</v>
+        <v>486.304562471668</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.2904362998222</v>
+        <v>439.8923375621113</v>
       </c>
       <c r="AD2" t="n">
-        <v>321809.0370783914</v>
+        <v>355422.3668641198</v>
       </c>
       <c r="AE2" t="n">
-        <v>440313.321743383</v>
+        <v>486304.562471668</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.991475394406735e-06</v>
+        <v>5.926663522187891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.475000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>398290.4362998222</v>
+        <v>439892.3375621113</v>
       </c>
     </row>
     <row r="3">
@@ -13760,28 +13760,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.7874921163554</v>
+        <v>269.4860732481074</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.6148489234479</v>
+        <v>368.7227343045378</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.8249405350741</v>
+        <v>333.5323540481197</v>
       </c>
       <c r="AD3" t="n">
-        <v>235787.4921163554</v>
+        <v>269486.0732481074</v>
       </c>
       <c r="AE3" t="n">
-        <v>322614.8489234479</v>
+        <v>368722.7343045378</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.509524031846699e-06</v>
+        <v>6.95301325181469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>291824.9405350741</v>
+        <v>333532.3540481197</v>
       </c>
     </row>
   </sheetData>
